--- a/instance/zyjk/EHR/comparison/EHR_itf与dc数据比对表.xlsx
+++ b/instance/zyjk/EHR/comparison/EHR_itf与dc数据比对表.xlsx
@@ -499,21 +499,21 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>510102193807075321 , 平安街道12号 &lt;&gt;    平安街道12号
-310110195412203888 , 测试区 平凉街道 扬州路 5平安街道12号 &lt;&gt;    测试区 平凉街道 扬州路 5平安街道12号
-310110195508092027 , 测试区 人民街道 内江路 2平安街道12号 &lt;&gt;    测试区 人民街道 内江路 2平安街道12号
-310110193109035448 , 测试区 长白街道  长白一村平安街道12号 &lt;&gt;    测试区 长白街道  长白一村平安街道12号
-310110195702231668 , 测试区 平凉街道 怀德路 4平安街道12号 &lt;&gt;    测试区 平凉街道 怀德路 4平安街道12号
-310110195806050431 , 测试区 人民街道 隆昌路 5平安街道12号 &lt;&gt;    测试区 人民街道 隆昌路 5平安街道12号
-310226195808244711 , 测试区 人民街道 平凉路 2平安街道12号 &lt;&gt;    测试区 人民街道 平凉路 2平安街道12号
-310110194401037066 , 测试区 五角场镇 翔殷路 3平安街道12号 &lt;&gt;    测试区 五角场镇 翔殷路 3平安街道12号
-310110194202150015 , 测试区 人民街道 人民港路 平安街道12号 &lt;&gt;    测试区 人民街道 人民港路 平安街道12号
-31011019511216002X , 测试区 人民街道 人民港路 平安街道12号 &lt;&gt;    测试区 人民街道 人民港路 平安街道12号
-310110195711015051 , 测试区  敦化路 3弄1号2平安街道12号 &lt;&gt;    测试区  敦化路 3弄1号2平安街道12号
-310110193501073844 , 测试区 控江街道 长岭路 凤平安街道12号 &lt;&gt;    测试区 控江街道 长岭路 凤平安街道12号
-310110195204182015 , 测试区 人民街道 贵阳路 3平安街道12号 &lt;&gt;    测试区 人民街道 贵阳路 3平安街道12号
-652827194803123624 , 平安街道12号 &lt;&gt;    平安街道12号
-31011019541116002X , 测试区 人民街道 人民港路 平安街道12号 &lt;&gt;    测试区 人民街道 人民港路 平安街道12号</t>
+          <t>310110195508184263 , 测试区 平凉街道 榆林路 3平安街道12号 &lt;&gt;    测试区 平凉街道 榆林路 3平安街道12号
+310110194708153838 , 测试区 四平街道  鞍山二村平安街道12号 &lt;&gt;    测试区 四平街道  鞍山二村平安街道12号
+52210119400529281X , 平安街道12号 &lt;&gt;    平安街道12号
+310110196204160486 , 测试区 平凉街道 景星路 3平安街道12号 &lt;&gt;    测试区 平凉街道 景星路 3平安街道12号
+310110195209023240 , 浦东新区 南码头街道 东三里平安街道12号 &lt;&gt;    浦东新区 南码头街道 东三里平安街道12号
+310110193212120018 , 测试区 人民街道 人民港路 平安街道12号 &lt;&gt;    测试区 人民街道 人民港路 平安街道12号
+320504195308071527 , 平安街道12号 &lt;&gt;    平安街道12号
+310110194012280011 , 测试区 人民街道 人民港路 平安街道12号 &lt;&gt;    测试区 人民街道 人民港路 平安街道12号
+310110196006195047 , 测试区 人民街道 内江路 公平安街道12号 &lt;&gt;    测试区 人民街道 内江路 公平安街道12号
+310110194410060022 , 测试区 人民街道 人民港路 平安街道12号 &lt;&gt;    测试区 人民街道 人民港路 平安街道12号
+310224194612162522 , 浦东新区 沪东街道 博兴路 平安街道12号 &lt;&gt;    浦东新区 沪东街道 博兴路 平安街道12号
+522101194706202821 , 平安街道12号 &lt;&gt;    平安街道12号
+310110193909191211 , 测试区 大桥街道 眉州路 西平安街道12号 &lt;&gt;    测试区 大桥街道 眉州路 西平安街道12号
+310110195101050044 , 测试区 人民街道 平凉路 2平安街道12号 &lt;&gt;    测试区 人民街道 平凉路 2平安街道12号
+310109195108242051 , 测试区 人民街道 平凉路 2平安街道12号 &lt;&gt;    测试区 人民街道 平凉路 2平安街道12号</t>
         </is>
       </c>
     </row>

--- a/instance/zyjk/EHR/comparison/EHR_itf与dc数据比对表.xlsx
+++ b/instance/zyjk/EHR/comparison/EHR_itf与dc数据比对表.xlsx
@@ -499,21 +499,21 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>310110195508184263 , 测试区 平凉街道 榆林路 3平安街道12号 &lt;&gt;    测试区 平凉街道 榆林路 3平安街道12号
-310110194708153838 , 测试区 四平街道  鞍山二村平安街道12号 &lt;&gt;    测试区 四平街道  鞍山二村平安街道12号
-52210119400529281X , 平安街道12号 &lt;&gt;    平安街道12号
-310110196204160486 , 测试区 平凉街道 景星路 3平安街道12号 &lt;&gt;    测试区 平凉街道 景星路 3平安街道12号
-310110195209023240 , 浦东新区 南码头街道 东三里平安街道12号 &lt;&gt;    浦东新区 南码头街道 东三里平安街道12号
-310110193212120018 , 测试区 人民街道 人民港路 平安街道12号 &lt;&gt;    测试区 人民街道 人民港路 平安街道12号
-320504195308071527 , 平安街道12号 &lt;&gt;    平安街道12号
-310110194012280011 , 测试区 人民街道 人民港路 平安街道12号 &lt;&gt;    测试区 人民街道 人民港路 平安街道12号
-310110196006195047 , 测试区 人民街道 内江路 公平安街道12号 &lt;&gt;    测试区 人民街道 内江路 公平安街道12号
-310110194410060022 , 测试区 人民街道 人民港路 平安街道12号 &lt;&gt;    测试区 人民街道 人民港路 平安街道12号
-310224194612162522 , 浦东新区 沪东街道 博兴路 平安街道12号 &lt;&gt;    浦东新区 沪东街道 博兴路 平安街道12号
-522101194706202821 , 平安街道12号 &lt;&gt;    平安街道12号
-310110193909191211 , 测试区 大桥街道 眉州路 西平安街道12号 &lt;&gt;    测试区 大桥街道 眉州路 西平安街道12号
-310110195101050044 , 测试区 人民街道 平凉路 2平安街道12号 &lt;&gt;    测试区 人民街道 平凉路 2平安街道12号
-310109195108242051 , 测试区 人民街道 平凉路 2平安街道12号 &lt;&gt;    测试区 人民街道 平凉路 2平安街道12号</t>
+          <t>310110195102050054 , 测试区 人民街道 平凉路 2平安街道12号 &lt;&gt;    测试区 人民街道 平凉路 2平安街道12号
+310104196705043213 , 长宁区 华阳街道 昭化路 3平安街道12号 &lt;&gt;    长宁区 华阳街道 昭化路 3平安街道12号
+310110195212201212 , 测试区 大桥街道 河间路 7平安街道12号 &lt;&gt;    测试区 大桥街道 河间路 7平安街道12号
+31011019520614387X , 宝山区 高境镇 殷高西路 高平安街道12号 &lt;&gt;    宝山区 高境镇 殷高西路 高平安街道12号
+31011019611114003X , 测试区 人民街道 内江路 民平安街道12号 &lt;&gt;    测试区 人民街道 内江路 民平安街道12号
+310110195704100442 , 测试区 人民街道 贵阳路 2平安街道12号 &lt;&gt;    测试区 人民街道 贵阳路 2平安街道12号
+310110195512290421 , 测试区 人民街道 杨树浦路 平安街道12号 &lt;&gt;    测试区 人民街道 杨树浦路 平安街道12号
+310110193710030023 , 测试区 人民街道 爱国路 爱平安街道12号 &lt;&gt;    测试区 人民街道 爱国路 爱平安街道12号
+310110194301212824 , 测试区 平凉街道 江浦路 8平安街道12号 &lt;&gt;    测试区 平凉街道 江浦路 8平安街道12号
+310110194410250440 , 测试区 平凉街道 大连路 3平安街道12号 &lt;&gt;    测试区 平凉街道 大连路 3平安街道12号
+310110195611140015 , 测试区 人民街道 平凉路 2平安街道12号 &lt;&gt;    测试区 人民街道 平凉路 2平安街道12号
+310110195710280048 , 测试区 人民街道 人民港路 平安街道12号 &lt;&gt;    测试区 人民街道 人民港路 平安街道12号
+630104194711171524 , 测试区 平凉街道 平凉路 2平安街道12号 &lt;&gt;    测试区 平凉街道 平凉路 2平安街道12号
+310110194211040029 , 测试区 人民街道 平凉路 2平安街道12号 &lt;&gt;    测试区 人民街道 平凉路 2平安街道12号
+310110195007150073 , 测试区 人民街道 平凉路 白平安街道12号 &lt;&gt;    测试区 人民街道 平凉路 白平安街道12号</t>
         </is>
       </c>
     </row>

--- a/instance/zyjk/EHR/comparison/EHR_itf与dc数据比对表.xlsx
+++ b/instance/zyjk/EHR/comparison/EHR_itf与dc数据比对表.xlsx
@@ -9,14 +9,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -27,7 +27,23 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
+      <family val="3"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -35,13 +51,9 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,13 +76,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -157,7 +176,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -411,27 +430,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="58.88671875" customWidth="1" min="1" max="1"/>
-    <col width="46.77734375" customWidth="1" min="2" max="2"/>
+    <col width="55.21875" customWidth="1" style="6" min="1" max="1"/>
+    <col width="78" customWidth="1" style="6" min="2" max="2"/>
     <col width="12.6640625" customWidth="1" min="3" max="3"/>
     <col width="69" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.2" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>itf表名.字段</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>dc表名.字段</t>
         </is>
@@ -448,12 +467,12 @@
       </c>
     </row>
     <row r="2" ht="15.6" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>ITF_TB_EHR_MAIN_INFO.ehrCode</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>HrCover.ehrNum</t>
         </is>
@@ -465,12 +484,12 @@
       </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>ITF_TB_EHR_MAIN_INFO.name</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>HrCover.Name</t>
         </is>
@@ -482,12 +501,12 @@
       </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>ITF_TB_EHR_MAIN_INFO.presentAddress</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>HrCover.PresentAddress</t>
         </is>
@@ -499,31 +518,18 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>310110195102050054 , 测试区 人民街道 平凉路 2平安街道12号 &lt;&gt;    测试区 人民街道 平凉路 2平安街道12号
-310104196705043213 , 长宁区 华阳街道 昭化路 3平安街道12号 &lt;&gt;    长宁区 华阳街道 昭化路 3平安街道12号
-310110195212201212 , 测试区 大桥街道 河间路 7平安街道12号 &lt;&gt;    测试区 大桥街道 河间路 7平安街道12号
-31011019520614387X , 宝山区 高境镇 殷高西路 高平安街道12号 &lt;&gt;    宝山区 高境镇 殷高西路 高平安街道12号
-31011019611114003X , 测试区 人民街道 内江路 民平安街道12号 &lt;&gt;    测试区 人民街道 内江路 民平安街道12号
-310110195704100442 , 测试区 人民街道 贵阳路 2平安街道12号 &lt;&gt;    测试区 人民街道 贵阳路 2平安街道12号
-310110195512290421 , 测试区 人民街道 杨树浦路 平安街道12号 &lt;&gt;    测试区 人民街道 杨树浦路 平安街道12号
-310110193710030023 , 测试区 人民街道 爱国路 爱平安街道12号 &lt;&gt;    测试区 人民街道 爱国路 爱平安街道12号
-310110194301212824 , 测试区 平凉街道 江浦路 8平安街道12号 &lt;&gt;    测试区 平凉街道 江浦路 8平安街道12号
-310110194410250440 , 测试区 平凉街道 大连路 3平安街道12号 &lt;&gt;    测试区 平凉街道 大连路 3平安街道12号
-310110195611140015 , 测试区 人民街道 平凉路 2平安街道12号 &lt;&gt;    测试区 人民街道 平凉路 2平安街道12号
-310110195710280048 , 测试区 人民街道 人民港路 平安街道12号 &lt;&gt;    测试区 人民街道 人民港路 平安街道12号
-630104194711171524 , 测试区 平凉街道 平凉路 2平安街道12号 &lt;&gt;    测试区 平凉街道 平凉路 2平安街道12号
-310110194211040029 , 测试区 人民街道 平凉路 2平安街道12号 &lt;&gt;    测试区 人民街道 平凉路 2平安街道12号
-310110195007150073 , 测试区 人民街道 平凉路 白平安街道12号 &lt;&gt;    测试区 人民街道 平凉路 白平安街道12号</t>
+          <t>31011019501202002X , 测试区 大桥街道 杭州路 4平安街道12号 &lt;&gt;    测试区 大桥街道 杭州路 4平安街道12号
+310110195704014675 , 测试区 延吉街道 双阳路 控平安街道12号 &lt;&gt;    测试区 延吉街道 双阳路 控平安街道12号</t>
         </is>
       </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>ITF_TB_EHR_MAIN_INFO.residenceAddress</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>HrCover.PermanentAddress</t>
         </is>
@@ -535,12 +541,12 @@
       </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>ITF_TB_EHR_MAIN_INFO.mobilePhone</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>HrCover.Phone</t>
         </is>
@@ -553,12 +559,12 @@
       <c r="D6" s="2" t="n"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>ITF_TB_EHR_MAIN_INFO.presentAddrTownshipCode</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>HrCover.NeighborhoodCode</t>
         </is>
@@ -570,12 +576,12 @@
       </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>ITF_TB_EHR_MAIN_INFO.presentAddrTownshipValue</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>HrCover.Neighborhood</t>
         </is>
@@ -587,12 +593,12 @@
       </c>
     </row>
     <row r="9" ht="15.6" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>ITF_TB_EHR_MAIN_INFO.residenceAddrNeighborhoodCode</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>HrCover.VillageCode</t>
         </is>
@@ -604,12 +610,12 @@
       </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>ITF_TB_EHR_MAIN_INFO.residenceAddrNeighborhoodValue</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>HrCover.VillageName</t>
         </is>
@@ -621,12 +627,12 @@
       </c>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>ITF_TB_EHR_MAIN_INFO.ehrCreateOrgCode</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>HrCover.ArchiveUnitCode</t>
         </is>
@@ -638,12 +644,12 @@
       </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>ITF_TB_EHR_MAIN_INFO.ehrCreateOrgName</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>HrCover.ArchiveUnit</t>
         </is>
@@ -655,12 +661,12 @@
       </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>ITF_TB_EHR_MAIN_INFO.creatorNo</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>HrCover.ArchiverId</t>
         </is>
@@ -672,12 +678,12 @@
       </c>
     </row>
     <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>ITF_TB_EHR_MAIN_INFO.creatorName</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>HrCover.Archiver</t>
         </is>
@@ -689,12 +695,12 @@
       </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>ITF_TB_EHR_MAIN_INFO.docNo</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>HrCover.ResponsibleDoctorId</t>
         </is>
@@ -706,17 +712,5958 @@
       </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>ITF_TB_EHR_MAIN_INFO.docName</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>HrCover.ResponsibleDoctor</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.name</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.Name</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.ehrCode</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.ArchiveNum</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>31011019501202002X , K05070564 &lt;&gt; 31011019501202002X
+310110195704014675 , K07283504 &lt;&gt; 310110195704014675</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.sexCode</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.Sex</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.dateOfBirth</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.DateOfBirth</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>31011019501202002X , 1950-12-02 &lt;&gt; 1950-12-02 00:00:00
+310110195704014675 , 1957-04-01 &lt;&gt; 1957-04-01 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.idCardNo</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.IdCard</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.workUnit</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.WorkUnit</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.mobilePhone</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.Phone</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.contactsName</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.ContactsName</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.contactsPhone</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.ContactsPhone</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.residenceTypeCode</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.ResidenceType</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.nationCode</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.NationCode</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.bloodTypeCode</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.BloodType</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.rhBloodTypeCode</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.RhBloodType</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.degreeCode</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.Degree</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.occupationCode</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.Occupation</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.maritalStatusCode</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.MaritalStatus</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.heredityDiseaseFlag</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.HeredityHistoryFlag</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.heredityDiseaseDesc</t>
+        </is>
+      </c>
+      <c r="B34" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.HeredityHistoryCode</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.envKitchenAerationCode</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.EnvironmentKitchenAeration</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.envFuelTypeCode</t>
+        </is>
+      </c>
+      <c r="B36" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.EnvironmentFuelType</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.envWaterCode</t>
+        </is>
+      </c>
+      <c r="B37" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.EnvironmentWater</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.envToiletCode</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.EnvironmentToilet</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>ITF_TB_EHR_MAIN_INFO.envCorralCode</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
+        <is>
+          <t>HrPersonBasicInfo.EnvironmentCorral</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.examinationDate</t>
+        </is>
+      </c>
+      <c r="B40" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.examinationDate</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.docNo</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.docNo</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.docName</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.docName</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.symptomCode</t>
+        </is>
+      </c>
+      <c r="B43" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.symptomCode</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.symptomName</t>
+        </is>
+      </c>
+      <c r="B44" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.symptomName</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.temperature</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.temperature</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.pulseRate</t>
+        </is>
+      </c>
+      <c r="B46" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.pulseRate</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.breathRate</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.breathRate</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.leftDBP</t>
+        </is>
+      </c>
+      <c r="B48" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.leftDBP</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.leftSBP</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.leftSBP</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.rightDBP</t>
+        </is>
+      </c>
+      <c r="B50" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.rightDBP</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.rightSBP</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.rightSBP</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.height</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.height</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.weight</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.weight</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.waistline</t>
+        </is>
+      </c>
+      <c r="B54" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.waistline</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.BMI</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.BMI</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.oldAssessHealthCode</t>
+        </is>
+      </c>
+      <c r="B56" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.oldAssessHealthCode</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.oldAssessHealthName</t>
+        </is>
+      </c>
+      <c r="B57" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.oldAssessHealthName</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.oldCareAbilityCode</t>
+        </is>
+      </c>
+      <c r="B58" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.oldCareAbilityCode</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.oldCareAbilityName</t>
+        </is>
+      </c>
+      <c r="B59" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.oldCareAbilityName</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.oldCareAbilityCode</t>
+        </is>
+      </c>
+      <c r="B60" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.oldCareAbilityCode</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.oldCareAbilityName</t>
+        </is>
+      </c>
+      <c r="B61" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.oldCareAbilityName</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.oldCognitiveCode</t>
+        </is>
+      </c>
+      <c r="B62" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.oldCognitiveCode</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.oldCognitiveName</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.oldCognitiveName</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.oldCognitiveScore</t>
+        </is>
+      </c>
+      <c r="B64" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.oldCognitiveScore</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.exerciseFrequencyCode</t>
+        </is>
+      </c>
+      <c r="B65" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.exerciseFrequencyCode</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.exerciseFrequencyName</t>
+        </is>
+      </c>
+      <c r="B66" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.exerciseFrequencyName</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.exerciseTime</t>
+        </is>
+      </c>
+      <c r="B67" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.exerciseTime</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.exerciseDuration</t>
+        </is>
+      </c>
+      <c r="B68" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.exerciseDuration</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.exerciseStyle</t>
+        </is>
+      </c>
+      <c r="B69" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.exerciseStyle</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.eatingHabitsCode</t>
+        </is>
+      </c>
+      <c r="B70" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.eatingHabitsCode</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.eatingHabitsName</t>
+        </is>
+      </c>
+      <c r="B71" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.eatingHabitsName</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.smokingCode</t>
+        </is>
+      </c>
+      <c r="B72" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.smokingCode</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.smokingName</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.smokingName</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.dailySmoking</t>
+        </is>
+      </c>
+      <c r="B74" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.dailySmoking</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.startSmokingAge</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.startSmokingAge</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.quitSmokingAge</t>
+        </is>
+      </c>
+      <c r="B76" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.quitSmokingAge</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.drinkingFrequencyCode</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.drinkingFrequencyCode</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.drinkingFrequencyName</t>
+        </is>
+      </c>
+      <c r="B78" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.drinkingFrequencyName</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.dailyDrinking</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.dailyDrinking</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.isQuitDrinking</t>
+        </is>
+      </c>
+      <c r="B80" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.isQuitDrinking</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.quitDrinkingAge</t>
+        </is>
+      </c>
+      <c r="B81" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.quitDrinkingAge</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.startDrinkingAge</t>
+        </is>
+      </c>
+      <c r="B82" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.startDrinkingAge</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.isDrunkYear</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.isDrunkYear</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.drinkingTypeCode</t>
+        </is>
+      </c>
+      <c r="B84" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.drinkingTypeCode</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.drinkingTypeName</t>
+        </is>
+      </c>
+      <c r="B85" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.drinkingTypeName</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.osAppearanceCode</t>
+        </is>
+      </c>
+      <c r="B86" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.osAppearanceCode</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.osAppearanceName</t>
+        </is>
+      </c>
+      <c r="B87" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.osAppearanceName</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.dentitionCategoryCode</t>
+        </is>
+      </c>
+      <c r="B88" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.dentitionCategoryCode</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.dentitionCategoryName</t>
+        </is>
+      </c>
+      <c r="B89" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.dentitionCategoryName</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.dentitionPosition</t>
+        </is>
+      </c>
+      <c r="B90" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.dentitionPosition</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.dentitionDescription</t>
+        </is>
+      </c>
+      <c r="B91" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.dentitionDescription</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.throatCheckCode</t>
+        </is>
+      </c>
+      <c r="B92" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.throatCheckCode</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.throatCheckName</t>
+        </is>
+      </c>
+      <c r="B93" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.throatCheckName</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.leftNakedEyesight</t>
+        </is>
+      </c>
+      <c r="B94" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.leftNakedEyesight</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.rightNakedEyesight</t>
+        </is>
+      </c>
+      <c r="B95" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.rightNakedEyesight</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.leftCorrectionEyesight</t>
+        </is>
+      </c>
+      <c r="B96" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.leftCorrectionEyesight</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.rightCorrectionEyesight</t>
+        </is>
+      </c>
+      <c r="B97" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.rightCorrectionEyesight</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.hearingCheckCode</t>
+        </is>
+      </c>
+      <c r="B98" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.hearingCheckCode</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.hearingCheckName</t>
+        </is>
+      </c>
+      <c r="B99" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.hearingCheckName</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.sportFunctionCode</t>
+        </is>
+      </c>
+      <c r="B100" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.sportFunctionCode</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.sportFunctionName</t>
+        </is>
+      </c>
+      <c r="B101" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.sportFunctionName</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.skinCheckCode</t>
+        </is>
+      </c>
+      <c r="B102" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.skinCheckCode</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.skinCheckName</t>
+        </is>
+      </c>
+      <c r="B103" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.skinCheckName</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.fundusAbnormalSign</t>
+        </is>
+      </c>
+      <c r="B104" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.fundusAbnormalSign</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.fundusAbnormalDescription</t>
+        </is>
+      </c>
+      <c r="B105" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.fundusAbnormalDescription</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.scleraCheckCode</t>
+        </is>
+      </c>
+      <c r="B106" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.scleraCheckCode</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.scleraCheckName</t>
+        </is>
+      </c>
+      <c r="B107" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.scleraCheckName</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.lymphCheckCode</t>
+        </is>
+      </c>
+      <c r="B108" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.lymphCheckCode</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.lymphCheckName</t>
+        </is>
+      </c>
+      <c r="B109" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.lymphCheckName</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.barrelChestSign</t>
+        </is>
+      </c>
+      <c r="B110" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.barrelChestSign</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.breathSoundsSign</t>
+        </is>
+      </c>
+      <c r="B111" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.breathSoundsSign</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.breathSoundsAbnormal</t>
+        </is>
+      </c>
+      <c r="B112" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.breathSoundsAbnormal</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.lungRalesCode</t>
+        </is>
+      </c>
+      <c r="B113" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.lungRalesCode</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.lungRalesName</t>
+        </is>
+      </c>
+      <c r="B114" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.lungRalesName</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.heartRate</t>
+        </is>
+      </c>
+      <c r="B115" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.heartRate</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.heartRateTypeCode</t>
+        </is>
+      </c>
+      <c r="B116" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.heartRateTypeCode</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.heartRateTypeName</t>
+        </is>
+      </c>
+      <c r="B117" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.heartRateTypeName</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.heartMurmurSign</t>
+        </is>
+      </c>
+      <c r="B118" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.heartMurmurSign</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.heartMurmur</t>
+        </is>
+      </c>
+      <c r="B119" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.heartMurmur</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.abdomenTendernessSign</t>
+        </is>
+      </c>
+      <c r="B120" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.abdomenTendernessSign</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.abdomenTenderness</t>
+        </is>
+      </c>
+      <c r="B121" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.abdomenTenderness</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.abdomenBlockSign</t>
+        </is>
+      </c>
+      <c r="B122" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.abdomenBlockSign</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.abdomenBlock</t>
+        </is>
+      </c>
+      <c r="B123" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.abdomenBlock</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.abdomenHepatomegalySign</t>
+        </is>
+      </c>
+      <c r="B124" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.abdomenHepatomegalySign</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.abdomenHepatomegaly</t>
+        </is>
+      </c>
+      <c r="B125" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.abdomenHepatomegaly</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.abdomenSplenomegalySign</t>
+        </is>
+      </c>
+      <c r="B126" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.abdomenSplenomegalySign</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.abdomenSplenomegaly</t>
+        </is>
+      </c>
+      <c r="B127" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.abdomenSplenomegaly</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.shiftingDullnessSign</t>
+        </is>
+      </c>
+      <c r="B128" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.shiftingDullnessSign</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.shiftingDullness</t>
+        </is>
+      </c>
+      <c r="B129" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.shiftingDullness</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.limbEdemaCode</t>
+        </is>
+      </c>
+      <c r="B130" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.limbEdemaCode</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.limbEdemaName</t>
+        </is>
+      </c>
+      <c r="B131" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.limbEdemaName</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.dorsalArteryOfFootCode</t>
+        </is>
+      </c>
+      <c r="B132" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.dorsalArteryOfFootCode</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.dorsalArteryOfFootName</t>
+        </is>
+      </c>
+      <c r="B133" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.dorsalArteryOfFootName</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.fingerAnusCode</t>
+        </is>
+      </c>
+      <c r="B134" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.fingerAnusCode</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.fingerAnusName</t>
+        </is>
+      </c>
+      <c r="B135" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.fingerAnusName</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.galactophoreCheckCode</t>
+        </is>
+      </c>
+      <c r="B136" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.galactophoreCheckCode</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.galactophoreCheckName</t>
+        </is>
+      </c>
+      <c r="B137" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.galactophoreCheckName</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.vulvaAbnormalSign</t>
+        </is>
+      </c>
+      <c r="B138" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.vulvaAbnormalSign</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.vulvaAbnormal</t>
+        </is>
+      </c>
+      <c r="B139" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.vulvaAbnormal</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.vaginalAbnormalSign</t>
+        </is>
+      </c>
+      <c r="B140" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.vaginalAbnormalSign</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.vulvaAbnormal</t>
+        </is>
+      </c>
+      <c r="B141" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.vulvaAbnormal</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.cervixAbnormalSign</t>
+        </is>
+      </c>
+      <c r="B142" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.cervixAbnormalSign</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.cervixAbnormal</t>
+        </is>
+      </c>
+      <c r="B143" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.cervixAbnormal</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.uterusAbnormalSign</t>
+        </is>
+      </c>
+      <c r="B144" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.uterusAbnormalSign</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.uterusAbnormal</t>
+        </is>
+      </c>
+      <c r="B145" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.uterusAbnormal</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.attachmentAbnormalSign</t>
+        </is>
+      </c>
+      <c r="B146" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.attachmentAbnormalSign</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.attachmentAbnormal</t>
+        </is>
+      </c>
+      <c r="B147" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.attachmentAbnormal</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.checkOther</t>
+        </is>
+      </c>
+      <c r="B148" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.checkOther</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.hemoglobin</t>
+        </is>
+      </c>
+      <c r="B149" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.hemoglobin</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.hemameba</t>
+        </is>
+      </c>
+      <c r="B150" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.hemameba</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.platelet</t>
+        </is>
+      </c>
+      <c r="B151" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.platelet</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.urineProtein</t>
+        </is>
+      </c>
+      <c r="B152" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.urineProtein</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.urineSugar</t>
+        </is>
+      </c>
+      <c r="B153" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.urineSugar</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.urineAcetoneBodies</t>
+        </is>
+      </c>
+      <c r="B154" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.urineAcetoneBodies</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.bld</t>
+        </is>
+      </c>
+      <c r="B155" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.bld</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.fastingBloodGlucose1</t>
+        </is>
+      </c>
+      <c r="B156" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.fastingBloodGlucose1</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.ECGAbnormalSign</t>
+        </is>
+      </c>
+      <c r="B157" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.ECGAbnormalSign</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.ECGAbnormal</t>
+        </is>
+      </c>
+      <c r="B158" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.ECGAbnormal</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.microalbuminuria</t>
+        </is>
+      </c>
+      <c r="B159" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.microalbuminuria</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.fecalOccultBlood</t>
+        </is>
+      </c>
+      <c r="B160" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.fecalOccultBlood</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.glycosylatedHemoglobin</t>
+        </is>
+      </c>
+      <c r="B161" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.glycosylatedHemoglobin</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.hbsag</t>
+        </is>
+      </c>
+      <c r="B162" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.hbsag</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.sgpt</t>
+        </is>
+      </c>
+      <c r="B163" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.sgpt</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.sgot</t>
+        </is>
+      </c>
+      <c r="B164" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.sgot</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.albumin</t>
+        </is>
+      </c>
+      <c r="B165" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.albumin</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.totalBilirubin</t>
+        </is>
+      </c>
+      <c r="B166" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.totalBilirubin</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.conjugatedBilirubin</t>
+        </is>
+      </c>
+      <c r="B167" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.conjugatedBilirubin</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.scr</t>
+        </is>
+      </c>
+      <c r="B168" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.scr</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.bloodUrea</t>
+        </is>
+      </c>
+      <c r="B169" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.bloodUrea</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.bloodPotassiumConcentratio</t>
+        </is>
+      </c>
+      <c r="B170" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.bloodPotassiumConcentratio</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.bloodSodiumConcentration</t>
+        </is>
+      </c>
+      <c r="B171" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.bloodSodiumConcentration</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.cholesterolTotal</t>
+        </is>
+      </c>
+      <c r="B172" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.cholesterolTotal</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.triglyceride</t>
+        </is>
+      </c>
+      <c r="B173" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.triglyceride</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.serumLowDensity</t>
+        </is>
+      </c>
+      <c r="B174" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.serumLowDensity</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.serumHighDensity</t>
+        </is>
+      </c>
+      <c r="B175" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.serumHighDensity</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.XrayAbnormalSign</t>
+        </is>
+      </c>
+      <c r="B176" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.XrayAbnormalSign</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.XrayAbnormal</t>
+        </is>
+      </c>
+      <c r="B177" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.XrayAbnormal</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.BscanAbnormalSign</t>
+        </is>
+      </c>
+      <c r="B178" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.BscanAbnormalSign</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.BscanAbnormal</t>
+        </is>
+      </c>
+      <c r="B179" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.BscanAbnormal</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.papSmearAbnormalSign</t>
+        </is>
+      </c>
+      <c r="B180" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.papSmearAbnormalSign</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.papSmearAbnormal</t>
+        </is>
+      </c>
+      <c r="B181" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.papSmearAbnormal</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.auxiliaryCheckOther</t>
+        </is>
+      </c>
+      <c r="B182" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.auxiliaryCheckOther</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.cerebrovascularCode</t>
+        </is>
+      </c>
+      <c r="B183" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.cerebrovascularCode</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.cerebrovascularName</t>
+        </is>
+      </c>
+      <c r="B184" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.cerebrovascularName</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.kidneyCode</t>
+        </is>
+      </c>
+      <c r="B185" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.kidneyCode</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.kidneyName</t>
+        </is>
+      </c>
+      <c r="B186" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.kidneyName</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.heartCode</t>
+        </is>
+      </c>
+      <c r="B187" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.heartCode</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.heartName</t>
+        </is>
+      </c>
+      <c r="B188" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.heartName</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.bloodVesselsCode</t>
+        </is>
+      </c>
+      <c r="B189" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.bloodVesselsCode</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.bloodVesselsName</t>
+        </is>
+      </c>
+      <c r="B190" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.bloodVesselsName</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.eyeCode</t>
+        </is>
+      </c>
+      <c r="B191" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.eyeCode</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.eyeName</t>
+        </is>
+      </c>
+      <c r="B192" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.eyeName</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.nervousSystemSign</t>
+        </is>
+      </c>
+      <c r="B193" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.nervousSystemSign</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.nervousSystem</t>
+        </is>
+      </c>
+      <c r="B194" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.nervousSystem</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.otherDiseasesSign</t>
+        </is>
+      </c>
+      <c r="B195" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.otherDiseasesSign</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.otherDiseases</t>
+        </is>
+      </c>
+      <c r="B196" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.otherDiseases</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.healthAssessAbnormalSign</t>
+        </is>
+      </c>
+      <c r="B197" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.healthAssessAbnormalSign</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.healthAssessAbnormal</t>
+        </is>
+      </c>
+      <c r="B198" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.healthAssessAbnormal</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.healthGuidanceCode</t>
+        </is>
+      </c>
+      <c r="B199" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.healthGuidanceCode</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.healthGuidanceName</t>
+        </is>
+      </c>
+      <c r="B200" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.healthGuidanceName</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.registerTypeCode</t>
+        </is>
+      </c>
+      <c r="B201" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.registerTypeCode</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.registerTypeName</t>
+        </is>
+      </c>
+      <c r="B202" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.registerTypeName</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_EXAMINATION_INFO.registerTypeOther</t>
+        </is>
+      </c>
+      <c r="B203" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_examination_info.registerTypeOther</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.visitDate</t>
+        </is>
+      </c>
+      <c r="B204" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A204</f>
+        <v/>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.visitWayCode</t>
+        </is>
+      </c>
+      <c r="B205" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A205</f>
+        <v/>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.visitWayValue</t>
+        </is>
+      </c>
+      <c r="B206" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A206</f>
+        <v/>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.otherVisit</t>
+        </is>
+      </c>
+      <c r="B207" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A207</f>
+        <v/>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.vistStatusCode</t>
+        </is>
+      </c>
+      <c r="B208" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A208</f>
+        <v/>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.visitStatusValue</t>
+        </is>
+      </c>
+      <c r="B209" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A209</f>
+        <v/>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.lostVisitDate</t>
+        </is>
+      </c>
+      <c r="B210" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A210</f>
+        <v/>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.lostVisitCode</t>
+        </is>
+      </c>
+      <c r="B211" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A211</f>
+        <v/>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.lostVisitName</t>
+        </is>
+      </c>
+      <c r="B212" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A212</f>
+        <v/>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.hasPaperCard</t>
+        </is>
+      </c>
+      <c r="B213" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A213</f>
+        <v/>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.auxiliaryCheck</t>
+        </is>
+      </c>
+      <c r="B214" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A214</f>
+        <v/>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.bpWayCode</t>
+        </is>
+      </c>
+      <c r="B215" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A215</f>
+        <v/>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.bpWayName</t>
+        </is>
+      </c>
+      <c r="B216" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A216</f>
+        <v/>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.sbp</t>
+        </is>
+      </c>
+      <c r="B217" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A217</f>
+        <v/>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.dbp</t>
+        </is>
+      </c>
+      <c r="B218" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A218</f>
+        <v/>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.height</t>
+        </is>
+      </c>
+      <c r="B219" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A219</f>
+        <v/>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.weight</t>
+        </is>
+      </c>
+      <c r="B220" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A220</f>
+        <v/>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.targetWeight</t>
+        </is>
+      </c>
+      <c r="B221" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A221</f>
+        <v/>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.BMI</t>
+        </is>
+      </c>
+      <c r="B222" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A222</f>
+        <v/>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.targetBMI</t>
+        </is>
+      </c>
+      <c r="B223" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A223</f>
+        <v/>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.heartRate</t>
+        </is>
+      </c>
+      <c r="B224" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A224</f>
+        <v/>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.smokingStatusCode</t>
+        </is>
+      </c>
+      <c r="B225" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A225</f>
+        <v/>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.smokingStatusName</t>
+        </is>
+      </c>
+      <c r="B226" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A226</f>
+        <v/>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.smokingVolume</t>
+        </is>
+      </c>
+      <c r="B227" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A227</f>
+        <v/>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.targetSmoke</t>
+        </is>
+      </c>
+      <c r="B228" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A228</f>
+        <v/>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.drinkingFrequencyCode</t>
+        </is>
+      </c>
+      <c r="B229" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A229</f>
+        <v/>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.drinkingFrequencyName</t>
+        </is>
+      </c>
+      <c r="B230" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A230</f>
+        <v/>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.drinkingVolume</t>
+        </is>
+      </c>
+      <c r="B231" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A231</f>
+        <v/>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.targetDrink</t>
+        </is>
+      </c>
+      <c r="B232" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A232</f>
+        <v/>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.sportFrequence</t>
+        </is>
+      </c>
+      <c r="B233" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A233</f>
+        <v/>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.sportTime</t>
+        </is>
+      </c>
+      <c r="B234" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A234</f>
+        <v/>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.targetSportTimes</t>
+        </is>
+      </c>
+      <c r="B235" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A235</f>
+        <v/>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.saltUptakeStatus</t>
+        </is>
+      </c>
+      <c r="B236" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A236</f>
+        <v/>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.saltUptakeStatusName</t>
+        </is>
+      </c>
+      <c r="B237" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A237</f>
+        <v/>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.targetSaltUptakeStatus</t>
+        </is>
+      </c>
+      <c r="B238" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A238</f>
+        <v/>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.psychologyStatus</t>
+        </is>
+      </c>
+      <c r="B239" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A239</f>
+        <v/>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.psychologyStatusName</t>
+        </is>
+      </c>
+      <c r="B240" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A240</f>
+        <v/>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.complianceStatus</t>
+        </is>
+      </c>
+      <c r="B241" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A241</f>
+        <v/>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.complianceStatusName</t>
+        </is>
+      </c>
+      <c r="B242" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A242</f>
+        <v/>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.manageGroup</t>
+        </is>
+      </c>
+      <c r="B243" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A243</f>
+        <v/>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.clinicalInfo</t>
+        </is>
+      </c>
+      <c r="B244" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A244</f>
+        <v/>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.cholesterol</t>
+        </is>
+      </c>
+      <c r="B245" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A245</f>
+        <v/>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.highCholesterol</t>
+        </is>
+      </c>
+      <c r="B246" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A246</f>
+        <v/>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.lowCholesterol</t>
+        </is>
+      </c>
+      <c r="B247" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A247</f>
+        <v/>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.triglycerides</t>
+        </is>
+      </c>
+      <c r="B248" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A248</f>
+        <v/>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.dangerousLevelCode</t>
+        </is>
+      </c>
+      <c r="B249" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A249</f>
+        <v/>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.dangerousLevelName</t>
+        </is>
+      </c>
+      <c r="B250" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A250</f>
+        <v/>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.isUseDrug</t>
+        </is>
+      </c>
+      <c r="B251" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A251</f>
+        <v/>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.noUseDrugReasonCode</t>
+        </is>
+      </c>
+      <c r="B252" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A252</f>
+        <v/>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.noUseDrugReasonValue</t>
+        </is>
+      </c>
+      <c r="B253" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A253</f>
+        <v/>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.noUseDrugSideEffects</t>
+        </is>
+      </c>
+      <c r="B254" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A254</f>
+        <v/>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.noUseDrugLaw</t>
+        </is>
+      </c>
+      <c r="B255" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A255</f>
+        <v/>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.drugComplianceCode</t>
+        </is>
+      </c>
+      <c r="B256" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A256</f>
+        <v/>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.drugComplianceName</t>
+        </is>
+      </c>
+      <c r="B257" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A257</f>
+        <v/>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.lawSideEffects</t>
+        </is>
+      </c>
+      <c r="B258" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A258</f>
+        <v/>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.visitType</t>
+        </is>
+      </c>
+      <c r="B259" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A259</f>
+        <v/>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.treatmentMeasures</t>
+        </is>
+      </c>
+      <c r="B260" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A260</f>
+        <v/>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.proposal</t>
+        </is>
+      </c>
+      <c r="B261" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A261</f>
+        <v/>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.acceptability</t>
+        </is>
+      </c>
+      <c r="B262" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A262</f>
+        <v/>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.isAcceptHealthEdu</t>
+        </is>
+      </c>
+      <c r="B263" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A263</f>
+        <v/>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.healthEduType</t>
+        </is>
+      </c>
+      <c r="B264" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A264</f>
+        <v/>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.referralReason</t>
+        </is>
+      </c>
+      <c r="B265" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A265</f>
+        <v/>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.referralOrgDept</t>
+        </is>
+      </c>
+      <c r="B266" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A266</f>
+        <v/>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.nextVisiDate</t>
+        </is>
+      </c>
+      <c r="B267" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A267</f>
+        <v/>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.visitDocNo</t>
+        </is>
+      </c>
+      <c r="B268" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A268</f>
+        <v/>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.visitDocName</t>
+        </is>
+      </c>
+      <c r="B269" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A269</f>
+        <v/>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.visitOrgCode</t>
+        </is>
+      </c>
+      <c r="B270" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A270</f>
+        <v/>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.visitOrgName</t>
+        </is>
+      </c>
+      <c r="B271" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A271</f>
+        <v/>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.cardId</t>
+        </is>
+      </c>
+      <c r="B272" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A272</f>
+        <v/>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.bloodPotassium</t>
+        </is>
+      </c>
+      <c r="B273" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A273</f>
+        <v/>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.bloodSodium</t>
+        </is>
+      </c>
+      <c r="B274" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A274</f>
+        <v/>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.fastingBloodSugarValue</t>
+        </is>
+      </c>
+      <c r="B275" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A275</f>
+        <v/>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.bloodLipids</t>
+        </is>
+      </c>
+      <c r="B276" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A276</f>
+        <v/>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.uricAcid</t>
+        </is>
+      </c>
+      <c r="B277" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A277</f>
+        <v/>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.creatinine</t>
+        </is>
+      </c>
+      <c r="B278" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A278</f>
+        <v/>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.hemoglobin</t>
+        </is>
+      </c>
+      <c r="B279" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A279</f>
+        <v/>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.hemameba</t>
+        </is>
+      </c>
+      <c r="B280" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A280</f>
+        <v/>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.platelet</t>
+        </is>
+      </c>
+      <c r="B281" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A281</f>
+        <v/>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.urineProtein</t>
+        </is>
+      </c>
+      <c r="B282" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A282</f>
+        <v/>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.urineSugar</t>
+        </is>
+      </c>
+      <c r="B283" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A283</f>
+        <v/>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.glycosylatedHemoglobin</t>
+        </is>
+      </c>
+      <c r="B284" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A284</f>
+        <v/>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.serumCProtein</t>
+        </is>
+      </c>
+      <c r="B285" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A285</f>
+        <v/>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.urineProteinQuantity</t>
+        </is>
+      </c>
+      <c r="B286" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A286</f>
+        <v/>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.homocysteineDetection</t>
+        </is>
+      </c>
+      <c r="B287" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A287</f>
+        <v/>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.ECG</t>
+        </is>
+      </c>
+      <c r="B288" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A288</f>
+        <v/>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.echocardiogram</t>
+        </is>
+      </c>
+      <c r="B289" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A289</f>
+        <v/>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.carotidUltrasound</t>
+        </is>
+      </c>
+      <c r="B290" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A290</f>
+        <v/>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.chestXray</t>
+        </is>
+      </c>
+      <c r="B291" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A291</f>
+        <v/>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_HTN_VISIT.pulseWave</t>
+        </is>
+      </c>
+      <c r="B292" s="6">
+        <f>"tb_dc_htn_visit.."&amp;A292</f>
+        <v/>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.visitDate</t>
+        </is>
+      </c>
+      <c r="B293" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.visitDate</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.vistStatusCode</t>
+        </is>
+      </c>
+      <c r="B294" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.vistStatusCode</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.visitStatusValue</t>
+        </is>
+      </c>
+      <c r="B295" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.visitStatusValue</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.lostVisitCode</t>
+        </is>
+      </c>
+      <c r="B296" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.lostVisitCode</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.lostVisitName</t>
+        </is>
+      </c>
+      <c r="B297" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.lostVisitName</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.deathReason</t>
+        </is>
+      </c>
+      <c r="B298" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.deathReason</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.hasPaperCard</t>
+        </is>
+      </c>
+      <c r="B299" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.hasPaperCard</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.clinicalSymptomsCode</t>
+        </is>
+      </c>
+      <c r="B300" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.clinicalSymptomsCode</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.clinicalSymptomsValue</t>
+        </is>
+      </c>
+      <c r="B301" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.clinicalSymptomsValue</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.symptomStatus</t>
+        </is>
+      </c>
+      <c r="B302" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.symptomStatus</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.hypoglycemia</t>
+        </is>
+      </c>
+      <c r="B303" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.hypoglycemia</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.familyHistory</t>
+        </is>
+      </c>
+      <c r="B304" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.familyHistory</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.isLawSport</t>
+        </is>
+      </c>
+      <c r="B305" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.isLawSport</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.sportTypeCode</t>
+        </is>
+      </c>
+      <c r="B306" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.sportTypeCode</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.sportTypeName</t>
+        </is>
+      </c>
+      <c r="B307" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.sportTypeName</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.height</t>
+        </is>
+      </c>
+      <c r="B308" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.height</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.weight</t>
+        </is>
+      </c>
+      <c r="B309" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.weight</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.waistline</t>
+        </is>
+      </c>
+      <c r="B310" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.waistline</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.targetWeight</t>
+        </is>
+      </c>
+      <c r="B311" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.targetWeight</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.BMI</t>
+        </is>
+      </c>
+      <c r="B312" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.BMI</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.targetBMI</t>
+        </is>
+      </c>
+      <c r="B313" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.targetBMI</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.dorsalArteryOfFootLeftCode</t>
+        </is>
+      </c>
+      <c r="B314" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.dorsalArteryOfFootLeftCode</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.dorsalArteryOfFootLeftName</t>
+        </is>
+      </c>
+      <c r="B315" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.dorsalArteryOfFootLeftName</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.dorsalArteryOfFootRightCode</t>
+        </is>
+      </c>
+      <c r="B316" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.dorsalArteryOfFootRightCode</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.dorsalArteryOfFootRightName</t>
+        </is>
+      </c>
+      <c r="B317" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.dorsalArteryOfFootRightName</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.smokingStatusCode</t>
+        </is>
+      </c>
+      <c r="B318" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.smokingStatusCode</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.smokingStatusName</t>
+        </is>
+      </c>
+      <c r="B319" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.smokingStatusName</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.smokingVolume</t>
+        </is>
+      </c>
+      <c r="B320" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.smokingVolume</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.targetSmoke</t>
+        </is>
+      </c>
+      <c r="B321" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.targetSmoke</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.drinkingFrequencyCode</t>
+        </is>
+      </c>
+      <c r="B322" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.drinkingFrequencyCode</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.drinkingFrequencyName</t>
+        </is>
+      </c>
+      <c r="B323" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.drinkingFrequencyName</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.drinkingVolume</t>
+        </is>
+      </c>
+      <c r="B324" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.drinkingVolume</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.targetDrink</t>
+        </is>
+      </c>
+      <c r="B325" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.targetDrink</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.sportFrequence</t>
+        </is>
+      </c>
+      <c r="B326" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.sportFrequence</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.targetSportFrequencyCode</t>
+        </is>
+      </c>
+      <c r="B327" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.targetSportFrequencyCode</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.targetSportFrequencyName</t>
+        </is>
+      </c>
+      <c r="B328" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.targetSportFrequencyName</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.sportTimes</t>
+        </is>
+      </c>
+      <c r="B329" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.sportTimes</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.targetSportTimes</t>
+        </is>
+      </c>
+      <c r="B330" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.targetSportTimes</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.dietCode</t>
+        </is>
+      </c>
+      <c r="B331" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.dietCode</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.dietName</t>
+        </is>
+      </c>
+      <c r="B332" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.dietName</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.stapleFood</t>
+        </is>
+      </c>
+      <c r="B333" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.stapleFood</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.targetStapleFood</t>
+        </is>
+      </c>
+      <c r="B334" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.targetStapleFood</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.psychologyStatusCode</t>
+        </is>
+      </c>
+      <c r="B335" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.psychologyStatusCode</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.psychologyStatusName</t>
+        </is>
+      </c>
+      <c r="B336" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.psychologyStatusName</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.complianceStatusCode</t>
+        </is>
+      </c>
+      <c r="B337" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.complianceStatusCode</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.complianceStatusName</t>
+        </is>
+      </c>
+      <c r="B338" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.complianceStatusName</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.fastingBloodSugarValue</t>
+        </is>
+      </c>
+      <c r="B339" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.fastingBloodSugarValue</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.randomBloodSugarValue</t>
+        </is>
+      </c>
+      <c r="B340" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.randomBloodSugarValue</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.fastingBloodSugarOGTTValue</t>
+        </is>
+      </c>
+      <c r="B341" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.fastingBloodSugarOGTTValue</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.twoHBloodSugarOGTTValue</t>
+        </is>
+      </c>
+      <c r="B342" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.twoHBloodSugarOGTTValue</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.hbAlc</t>
+        </is>
+      </c>
+      <c r="B343" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.hbAlc</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.cholesterol</t>
+        </is>
+      </c>
+      <c r="B344" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.cholesterol</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.highCholesterol</t>
+        </is>
+      </c>
+      <c r="B345" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.highCholesterol</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.lowCholesterol</t>
+        </is>
+      </c>
+      <c r="B346" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.lowCholesterol</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.triglycerides</t>
+        </is>
+      </c>
+      <c r="B347" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.triglycerides</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.drugComplianceCode</t>
+        </is>
+      </c>
+      <c r="B348" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.drugComplianceCode</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.drugComplianceName</t>
+        </is>
+      </c>
+      <c r="B349" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.drugComplianceName</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.hasUseDrugSideEffects</t>
+        </is>
+      </c>
+      <c r="B350" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.hasUseDrugSideEffects</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.visitType</t>
+        </is>
+      </c>
+      <c r="B351" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.visitType</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.isAcceptHealthEdu</t>
+        </is>
+      </c>
+      <c r="B352" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.isAcceptHealthEdu</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.healthEduType</t>
+        </is>
+      </c>
+      <c r="B353" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.healthEduType</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.referralReason</t>
+        </is>
+      </c>
+      <c r="B354" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.referralReason</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.referralOrgDept</t>
+        </is>
+      </c>
+      <c r="B355" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.referralOrgDept</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.nextVisiDate</t>
+        </is>
+      </c>
+      <c r="B356" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.nextVisiDate</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.visitDocNo</t>
+        </is>
+      </c>
+      <c r="B357" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.visitDocNo</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.visitDocName</t>
+        </is>
+      </c>
+      <c r="B358" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.visitDocName</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.visitOrgCode</t>
+        </is>
+      </c>
+      <c r="B359" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.visitOrgCode</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.visitOrgName</t>
+        </is>
+      </c>
+      <c r="B360" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.visitOrgName</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.visitWayCode</t>
+        </is>
+      </c>
+      <c r="B361" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.visitWayCode</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.visitWayValue</t>
+        </is>
+      </c>
+      <c r="B362" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.visitWayValue</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.otherVisit</t>
+        </is>
+      </c>
+      <c r="B363" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.otherVisit</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.targetDistrictCode</t>
+        </is>
+      </c>
+      <c r="B364" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.targetDistrictCode</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.targetDistrictName</t>
+        </is>
+      </c>
+      <c r="B365" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.targetDistrictName</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.targetOrgCode</t>
+        </is>
+      </c>
+      <c r="B366" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.targetOrgCode</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.targetOrgName</t>
+        </is>
+      </c>
+      <c r="B367" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.targetOrgName</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.urineProtein</t>
+        </is>
+      </c>
+      <c r="B368" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.urineProtein</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.acr</t>
+        </is>
+      </c>
+      <c r="B369" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.acr</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="6" t="inlineStr">
+        <is>
+          <t>ITF_TB_DM_VISIT.proposal</t>
+        </is>
+      </c>
+      <c r="B370" s="6" t="inlineStr">
+        <is>
+          <t>tb_dc_dm_visit.proposal</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
         <is>
           <t>ok</t>
         </is>

--- a/instance/zyjk/EHR/comparison/EHR_itf与dc数据比对表.xlsx
+++ b/instance/zyjk/EHR/comparison/EHR_itf与dc数据比对表.xlsx
@@ -176,7 +176,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -432,8 +432,8 @@
   </sheetPr>
   <dimension ref="A1:D370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="0"/>
@@ -518,8 +518,8 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31011019501202002X , 测试区 大桥街道 杭州路 4平安街道12号 &lt;&gt;    测试区 大桥街道 杭州路 4平安街道12号
-310110195704014675 , 测试区 延吉街道 双阳路 控平安街道12号 &lt;&gt;    测试区 延吉街道 双阳路 控平安街道12号</t>
+          <t>310110194406220425 , 测试区 人民街道 平凉路 1平安街道12号 &lt;&gt;    测试区 人民街道 平凉路 1平安街道12号
+310110195807190436 , 测试区 人民街道 贵阳路 1平安街道12号 &lt;&gt;    测试区 人民街道 贵阳路 1平安街道12号</t>
         </is>
       </c>
     </row>
@@ -763,8 +763,8 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>31011019501202002X , K05070564 &lt;&gt; 31011019501202002X
-310110195704014675 , K07283504 &lt;&gt; 310110195704014675</t>
+          <t>310110194406220425 , K06240182 &lt;&gt; 310110194406220425
+310110195807190436 , K06342920 &lt;&gt; 310110195807190436</t>
         </is>
       </c>
     </row>
@@ -803,8 +803,8 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>31011019501202002X , 1950-12-02 &lt;&gt; 1950-12-02 00:00:00
-310110195704014675 , 1957-04-01 &lt;&gt; 1957-04-01 00:00:00</t>
+          <t>310110194406220425 , 1944-06-22 &lt;&gt; 1944-06-22 00:00:00
+310110195807190436 , 1958-07-19 &lt;&gt; 1958-07-19 00:00:00</t>
         </is>
       </c>
     </row>
